--- a/AppV2/App_Data/reportes/consultor3/ReporteGeneralGastoFuncionamientoPorArea.xlsx
+++ b/AppV2/App_Data/reportes/consultor3/ReporteGeneralGastoFuncionamientoPorArea.xlsx
@@ -95,19 +95,13 @@
     <x:t>Materiales y suministros</x:t>
   </x:si>
   <x:si>
-    <x:t>TELEFONO CELULAR NEXTEL I 30S</x:t>
+    <x:t>MACHO P/R TUBO NPT DE 1.1/2  X 11.5 HILOS</x:t>
   </x:si>
   <x:si>
     <x:t/>
   </x:si>
   <x:si>
-    <x:t>ABRAZADERA FIERRO GALV. A TORNILLO SIN FIN DE   5/8"</x:t>
-  </x:si>
-  <x:si>
     <x:t>Servicios</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MANTENIMIENTO DE VEHICULOS GENERALES</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -690,7 +684,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E12" t="n">
-        <x:v>60.63</x:v>
+        <x:v>655.83</x:v>
       </x:c>
       <x:c r="F12" t="s">
         <x:v>27</x:v>
@@ -735,112 +729,6 @@
     <x:row r="13">
       <x:c r="B13" t="s">
         <x:v>28</x:v>
-      </x:c>
-      <x:c r="C13" t="n">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="D13" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E13" t="n">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="F13" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G13" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="H13" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="I13" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="J13" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="K13" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="L13" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="M13" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="N13" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="O13" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="P13" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="Q13" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="R13" t="s">
-        <x:v>27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14">
-      <x:c r="B14" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15">
-      <x:c r="B15" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C15" t="n">
-        <x:v>5000</x:v>
-      </x:c>
-      <x:c r="D15" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E15" t="n">
-        <x:v>5000</x:v>
-      </x:c>
-      <x:c r="F15" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G15" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="H15" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="I15" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="J15" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="K15" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="L15" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="M15" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="N15" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="O15" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="P15" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="Q15" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="R15" t="s">
-        <x:v>27</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/AppV2/App_Data/reportes/consultor3/ReporteGeneralGastoFuncionamientoPorArea.xlsx
+++ b/AppV2/App_Data/reportes/consultor3/ReporteGeneralGastoFuncionamientoPorArea.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <x:si>
     <x:t>ORGANISMOS DIRECCION EJECUTIVA</x:t>
   </x:si>
@@ -26,9 +26,6 @@
     <x:t>PRESUPUESTO  DE  INVERSIONES 2017 -    FORMULACION 2017</x:t>
   </x:si>
   <x:si>
-    <x:t>(En Nuevos Soles)</x:t>
-  </x:si>
-  <x:si>
     <x:t>C.C.</x:t>
   </x:si>
   <x:si>
@@ -86,22 +83,97 @@
     <x:t>DETALLE DE GASTOS DE FUNCIONAMIENTO</x:t>
   </x:si>
   <x:si>
-    <x:t>Presupuesto 2017 - I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FORMULACION PRESUPUESTAL - 2017</x:t>
+    <x:t>(En Soles)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>P/U</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Presup 7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FORMULACION PRESUPUESTAL - 2019</x:t>
   </x:si>
   <x:si>
     <x:t>Materiales y suministros</x:t>
   </x:si>
   <x:si>
-    <x:t>MACHO P/R TUBO NPT DE 1.1/2  X 11.5 HILOS</x:t>
+    <x:t>0306090202 - MULTIMETRO DIGITAL DE 0.001 NF A 50 MF 100 KHZ 1 SEG. A 99 MIN 1000 REGISTROS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>400715</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X</x:t>
   </x:si>
   <x:si>
     <x:t/>
   </x:si>
   <x:si>
+    <x:t>reposicion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2502100700 - BANDEJA PORTA PAPELES ACRILICO DE DOS PISOS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2503020600 - BASE DE PLASTICO P/CINTA SCOTCH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2505010153 - ARCHIVADOR DE PALANCA T/OFICIO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2507080098 - PAPEL BOND BLANCO 80 GR A-4 P/FOTOCOPIADORA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2509190171 - SELLO AUTOMATICO CON IMPRESION TRODAT C/ALMOHADILLA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2700070208 - CD ROOM 700 MB CON ESTUCHE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2710015009 - MOUSE TRES BOTONES CONEXION USB/PS2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3015500959 - CABLE TELEFONICO DE 2 X 18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3112286315 - CAJA MODULAR JACKS DE 02 PINES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3302280149 - LAMPARA FLUORESCENTE RECTO 36 W T8,MOD.TLD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3518133628 - PATCH CORD FIBRA MULTIMODO 50/125 MTRJ-SC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Total Materiales</x:t>
+  </x:si>
+  <x:si>
+    <x:t>315.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9956.78</x:t>
+  </x:si>
+  <x:si>
     <x:t>Servicios</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SR50120001 - TELEFONIA FIJA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SR50140001 - TELEFONIA CELULAR </x:t>
+  </x:si>
+  <x:si>
+    <x:t>telefonia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SR50150001 - INTERNET</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Total Servicios</x:t>
+  </x:si>
+  <x:si>
+    <x:t>772808.00</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -493,22 +565,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <x:dimension ref="B2:R10"/>
+  <x:dimension ref="B2:S10"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="B9" sqref="B9:B10"/>
+      <x:selection activeCell="E1" sqref="E1:E1048576"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:cols>
     <x:col min="2" max="2" width="62.85546875" customWidth="1"/>
     <x:col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <x:col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <x:col min="4" max="5" width="10.42578125" customWidth="1"/>
     <x:col min="6" max="17" width="4.85546875" customWidth="1"/>
-    <x:col min="18" max="18" width="61.7109375" customWidth="1"/>
+    <x:col min="19" max="19" width="61.7109375" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <x:row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <x:c r="B2" s="4" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -517,37 +589,37 @@
       <x:c r="E2" s="4"/>
       <x:c r="F2" s="4"/>
     </x:row>
-    <x:row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <x:row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <x:c r="B3" s="4" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="B3 " t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C3" s="4"/>
       <x:c r="D3" s="4"/>
       <x:c r="E3" s="4"/>
       <x:c r="F3" s="4"/>
     </x:row>
-    <x:row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <x:row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <x:c r="B4" s="4" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C4" s="4"/>
       <x:c r="D4" s="4"/>
       <x:c r="E4" s="4"/>
       <x:c r="F4" s="4"/>
     </x:row>
-    <x:row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <x:row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <x:c r="B5" s="5"/>
       <x:c r="C5" s="5"/>
       <x:c r="D5" s="5"/>
       <x:c r="E5" s="5"/>
       <x:c r="F5" s="5"/>
     </x:row>
-    <x:row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <x:row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <x:c r="B6" s="3" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C6" s="3"/>
       <x:c r="D6" s="3"/>
@@ -565,10 +637,11 @@
       <x:c r="P6" s="3"/>
       <x:c r="Q6" s="3"/>
       <x:c r="R6" s="3"/>
-    </x:row>
-    <x:row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <x:c r="S6" s="3"/>
+    </x:row>
+    <x:row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <x:c r="B7" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C7" s="3"/>
       <x:c r="D7" s="3"/>
@@ -586,29 +659,30 @@
       <x:c r="P7" s="3"/>
       <x:c r="Q7" s="3"/>
       <x:c r="R7" s="3"/>
-    </x:row>
-    <x:row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <x:c r="S7" s="3"/>
+    </x:row>
+    <x:row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <x:c r="B8" s="6"/>
       <x:c r="C8" s="6"/>
       <x:c r="D8" s="6"/>
-      <x:c r="E8" s="6"/>
+      <x:c r="E8" s="7"/>
       <x:c r="F8" s="7"/>
     </x:row>
-    <x:row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <x:row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <x:c r="B9" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C9" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D9" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
       <x:c r="E9" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G9" s="2"/>
       <x:c r="H9" s="2"/>
@@ -622,120 +696,933 @@
       <x:c r="P9" s="2"/>
       <x:c r="Q9" s="2"/>
       <x:c r="R9" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="2:18" x14ac:dyDescent="0.25">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="S9" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <x:c r="B10" s="2"/>
       <x:c r="C10" s="2"/>
       <x:c r="D10" s="2"/>
       <x:c r="E10" s="2"/>
       <x:c r="F10" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="G10" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="G10" s="1" t="s">
+      <x:c r="H10" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="H10" s="1" t="s">
+      <x:c r="I10" s="1" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="I10" s="1" t="s">
+      <x:c r="J10" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="J10" s="1" t="s">
+      <x:c r="K10" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="K10" s="1" t="s">
+      <x:c r="L10" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="L10" s="1" t="s">
+      <x:c r="M10" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="M10" s="1" t="s">
+      <x:c r="N10" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="O10" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="N10" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="O10" s="1" t="s">
+      <x:c r="P10" s="1" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="P10" s="1" t="s">
+      <x:c r="Q10" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="Q10" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
       <x:c r="R10" s="2"/>
+      <x:c r="S10" s="2"/>
     </x:row>
     <x:row r="11">
       <x:c r="B11" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="12">
       <x:c r="B12" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C12" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D12" t="s">
         <x:v>27</x:v>
       </x:c>
+      <x:c r="C12" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D12" t="n">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="E12" t="n">
-        <x:v>655.83</x:v>
+        <x:v>1534.93</x:v>
       </x:c>
       <x:c r="F12" t="s">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G12" t="s">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H12" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I12" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J12" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K12" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L12" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M12" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N12" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O12" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P12" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="Q12" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="R12" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="R12" t="n">
+        <x:v>6139.72</x:v>
+      </x:c>
+      <x:c r="S12" t="s">
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="13">
       <x:c r="B13" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C13" t="s">
         <x:v>28</x:v>
       </x:c>
+      <x:c r="D13" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E13" t="n">
+        <x:v>15.09</x:v>
+      </x:c>
+      <x:c r="F13" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G13" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H13" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I13" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="J13" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="K13" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="L13" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="M13" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="N13" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O13" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="P13" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="Q13" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="R13" t="n">
+        <x:v>30.18</x:v>
+      </x:c>
+      <x:c r="S13" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14">
+      <x:c r="B14" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C14" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D14" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E14" t="n">
+        <x:v>6.44</x:v>
+      </x:c>
+      <x:c r="F14" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G14" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H14" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I14" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="J14" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="K14" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="L14" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="M14" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="N14" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O14" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="P14" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="Q14" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="R14" t="n">
+        <x:v>6.44</x:v>
+      </x:c>
+      <x:c r="S14" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15">
+      <x:c r="B15" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C15" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D15" t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E15" t="n">
+        <x:v>2.64</x:v>
+      </x:c>
+      <x:c r="F15" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G15" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H15" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I15" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="J15" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="K15" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="L15" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="M15" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="N15" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O15" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="P15" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="Q15" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="R15" t="n">
+        <x:v>79.2</x:v>
+      </x:c>
+      <x:c r="S15" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16">
+      <x:c r="B16" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C16" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D16" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E16" t="n">
+        <x:v>19.46</x:v>
+      </x:c>
+      <x:c r="F16" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G16" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H16" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I16" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="J16" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="K16" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="L16" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="M16" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="N16" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O16" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="P16" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="Q16" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="R16" t="n">
+        <x:v>505.96</x:v>
+      </x:c>
+      <x:c r="S16" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17">
+      <x:c r="B17" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C17" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D17" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E17" t="n">
+        <x:v>17.56</x:v>
+      </x:c>
+      <x:c r="F17" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G17" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H17" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I17" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="J17" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="K17" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="L17" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="M17" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="N17" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O17" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="P17" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="Q17" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="R17" t="n">
+        <x:v>35.12</x:v>
+      </x:c>
+      <x:c r="S17" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18">
+      <x:c r="B18" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C18" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D18" t="n">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E18" t="n">
+        <x:v>1.04</x:v>
+      </x:c>
+      <x:c r="F18" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G18" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H18" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I18" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="J18" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="K18" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="L18" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="M18" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="N18" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O18" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="P18" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="Q18" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="R18" t="n">
+        <x:v>72.8</x:v>
+      </x:c>
+      <x:c r="S18" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19">
+      <x:c r="B19" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C19" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D19" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E19" t="n">
+        <x:v>13.14</x:v>
+      </x:c>
+      <x:c r="F19" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G19" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H19" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I19" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="J19" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="K19" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="L19" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="M19" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="N19" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O19" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="P19" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="Q19" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="R19" t="n">
+        <x:v>78.84</x:v>
+      </x:c>
+      <x:c r="S19" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20">
+      <x:c r="B20" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C20" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D20" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E20" t="n">
+        <x:v>0.36</x:v>
+      </x:c>
+      <x:c r="F20" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G20" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H20" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I20" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="J20" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="K20" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="L20" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="M20" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="N20" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O20" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="P20" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="Q20" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="R20" t="n">
+        <x:v>0.72</x:v>
+      </x:c>
+      <x:c r="S20" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21">
+      <x:c r="B21" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C21" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D21" t="n">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="E21" t="n">
+        <x:v>6.04</x:v>
+      </x:c>
+      <x:c r="F21" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G21" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H21" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I21" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="J21" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="K21" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="L21" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="M21" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="N21" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O21" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="P21" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="Q21" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="R21" t="n">
+        <x:v>906</x:v>
+      </x:c>
+      <x:c r="S21" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22">
+      <x:c r="B22" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C22" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D22" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E22" t="n">
+        <x:v>3.86</x:v>
+      </x:c>
+      <x:c r="F22" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G22" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H22" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I22" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="J22" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="K22" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="L22" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="M22" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="N22" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O22" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="P22" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="Q22" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="R22" t="n">
+        <x:v>19.3</x:v>
+      </x:c>
+      <x:c r="S22" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23">
+      <x:c r="B23" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C23" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D23" t="n">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E23" t="n">
+        <x:v>122.5</x:v>
+      </x:c>
+      <x:c r="F23" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G23" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H23" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I23" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="J23" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="K23" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="L23" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="M23" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="N23" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O23" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="P23" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="Q23" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="R23" t="n">
+        <x:v>2082.5</x:v>
+      </x:c>
+      <x:c r="S23" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24">
+      <x:c r="B24" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D24" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R24" t="s">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25">
+      <x:c r="B25" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26">
+      <x:c r="B26" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C26" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D26" t="n">
+        <x:v>43200</x:v>
+      </x:c>
+      <x:c r="E26" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F26" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G26" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H26" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I26" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="J26" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="K26" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="L26" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="M26" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="N26" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O26" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="P26" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="Q26" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="R26" t="n">
+        <x:v>43200</x:v>
+      </x:c>
+      <x:c r="S26" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27">
+      <x:c r="B27" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C27" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D27" t="n">
+        <x:v>156008</x:v>
+      </x:c>
+      <x:c r="E27" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F27" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="G27" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H27" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I27" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="J27" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="K27" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="L27" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="M27" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="N27" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O27" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="P27" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="Q27" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="R27" t="n">
+        <x:v>156008</x:v>
+      </x:c>
+      <x:c r="S27" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28">
+      <x:c r="B28" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C28" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D28" t="n">
+        <x:v>573600</x:v>
+      </x:c>
+      <x:c r="E28" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F28" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G28" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H28" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I28" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="J28" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="K28" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="L28" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="M28" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="N28" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O28" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="P28" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="Q28" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="R28" t="n">
+        <x:v>573600</x:v>
+      </x:c>
+      <x:c r="S28" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29">
+      <x:c r="B29" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D29" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="R29" t="s">
+        <x:v>52</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="13">
-    <x:mergeCell ref="R9:R10"/>
-    <x:mergeCell ref="B6:R6"/>
-    <x:mergeCell ref="B7:R7"/>
+  <x:mergeCells count="14">
+    <x:mergeCell ref="S9:S10"/>
+    <x:mergeCell ref="B6:S6"/>
+    <x:mergeCell ref="B7:S7"/>
     <x:mergeCell ref="B2:F2"/>
     <x:mergeCell ref="B3:F3"/>
     <x:mergeCell ref="B4:F4"/>
@@ -744,8 +1631,9 @@
     <x:mergeCell ref="B9:B10"/>
     <x:mergeCell ref="C9:C10"/>
     <x:mergeCell ref="D9:D10"/>
+    <x:mergeCell ref="F9:Q9"/>
+    <x:mergeCell ref="R9:R10"/>
     <x:mergeCell ref="E9:E10"/>
-    <x:mergeCell ref="F9:Q9"/>
   </x:mergeCells>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
